--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67" count="71">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,27 @@
   </si>
   <si>
     <t>Ruta del archivo donde estara almacenado el producto final del flujo</t>
+  </si>
+  <si>
+    <t>C:\Users\Red\Documents\UiPath\ChallengeEDSA\Data\Output\output_datos_buscar.xlsx</t>
+  </si>
+  <si>
+    <t>Filtro_menor_a</t>
+  </si>
+  <si>
+    <t>valor para filtrar precios de todos los productos extraidos desde amazon</t>
+  </si>
+  <si>
+    <t>Filtro_mayor_a</t>
+  </si>
+  <si>
+    <t>Ruta_Imagenes</t>
+  </si>
+  <si>
+    <t>C:\Users\Red\Documents\UiPath\ChallengeEDSA\Exceptions_Screenshots\</t>
+  </si>
+  <si>
+    <t>En caso que exista algun error en esta ruta quedara la imagen que tomara el bot al momento de fallar</t>
   </si>
 </sst>
 </file>
@@ -263,7 +284,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -279,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +330,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1">
@@ -321,6 +348,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,13 +773,46 @@
       <c r="A8" t="s">
         <v>58</v>
       </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -785,7 +785,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -796,7 +796,7 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
